--- a/data/trans_orig/IP19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A27793-85FD-4660-B5CE-0294F469869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42B9392-129C-428B-BC01-A7044C2B3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86206563-A643-462E-9158-B10A617A395E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2BC726D-98B5-4FFB-8993-F88C7A35F6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -116,55 +116,55 @@
     <t>76,16%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -182,955 +182,934 @@
     <t>68,96%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E6F7EF-F3C7-4DEF-969B-19CA096ECDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728A9B26-DC89-4F82-9815-43EC60E1A087}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2696,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DE9AC5-AB5E-4FB8-8C4C-01BDBBD43E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A453AF-102C-4BA1-9856-B053560EF0D1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,16 +3060,16 @@
         <v>98</v>
       </c>
       <c r="I9" s="7">
-        <v>67406</v>
+        <v>67407</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -3099,13 +3078,13 @@
         <v>124436</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3099,13 @@
         <v>29162</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3135,13 +3114,13 @@
         <v>24962</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3150,13 +3129,13 @@
         <v>54125</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3162,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>18</v>
@@ -3245,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3275,13 +3254,13 @@
         <v>357182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>459</v>
@@ -3290,13 +3269,13 @@
         <v>315524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>972</v>
@@ -3305,13 +3284,13 @@
         <v>672706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3305,13 @@
         <v>134519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -3341,13 +3320,13 @@
         <v>136686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>387</v>
@@ -3356,13 +3335,13 @@
         <v>271205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3466,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3460,13 @@
         <v>117143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3496,13 +3475,13 @@
         <v>109414</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -3511,13 +3490,13 @@
         <v>226559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3511,13 @@
         <v>53722</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -3547,13 +3526,13 @@
         <v>57398</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -3562,13 +3541,13 @@
         <v>111119</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3666,13 @@
         <v>531997</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H21" s="7">
         <v>711</v>
@@ -3702,13 +3681,13 @@
         <v>492345</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M21" s="7">
         <v>1471</v>
@@ -3717,13 +3696,13 @@
         <v>1024342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3717,13 @@
         <v>217403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -3753,13 +3732,13 @@
         <v>219046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -3768,13 +3747,13 @@
         <v>436449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D8D82B-E453-4C7A-A8D7-D3EEA4005612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29679614-3AE6-468D-9E56-F0B52D00DEF6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4162,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4177,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4192,7 +4171,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4186,13 @@
         <v>56005</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -4222,13 +4201,13 @@
         <v>48306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -4237,13 +4216,13 @@
         <v>104312</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4237,13 @@
         <v>12609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4273,13 +4252,13 @@
         <v>11072</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4288,13 +4267,13 @@
         <v>23681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4347,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4413,13 +4392,13 @@
         <v>349859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>499</v>
@@ -4428,13 +4407,13 @@
         <v>325923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>1002</v>
@@ -4443,13 +4422,13 @@
         <v>675782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4443,13 @@
         <v>138876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4479,13 +4458,13 @@
         <v>146367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>407</v>
@@ -4494,13 +4473,13 @@
         <v>285243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4589,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4604,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4598,13 @@
         <v>128267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4634,13 +4613,13 @@
         <v>116846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>369</v>
@@ -4649,13 +4628,13 @@
         <v>245113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4649,13 @@
         <v>59228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -4685,13 +4664,13 @@
         <v>55857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>160</v>
@@ -4700,13 +4679,13 @@
         <v>115084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4804,13 @@
         <v>534131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H21" s="7">
         <v>750</v>
@@ -4840,13 +4819,13 @@
         <v>491075</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>1524</v>
@@ -4855,13 +4834,13 @@
         <v>1025207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4855,13 @@
         <v>210713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="H22" s="7">
         <v>311</v>
@@ -4891,13 +4870,13 @@
         <v>213296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>602</v>
@@ -4906,13 +4885,13 @@
         <v>424008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6613CD9C-8D33-4C41-9ABD-56F0145D6487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B034A-7A53-4706-8B95-0F61640B766A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5005,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5294,13 +5273,13 @@
         <v>29224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -5309,13 +5288,13 @@
         <v>19686</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -5324,13 +5303,13 @@
         <v>48909</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5324,13 @@
         <v>21016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -5360,13 +5339,13 @@
         <v>24259</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -5375,13 +5354,13 @@
         <v>45275</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5375,13 @@
         <v>6593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5411,13 +5390,13 @@
         <v>6205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5426,13 +5405,13 @@
         <v>12799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5479,13 @@
         <v>150103</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>244</v>
@@ -5515,13 +5494,13 @@
         <v>149265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>490</v>
@@ -5530,13 +5509,13 @@
         <v>299368</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5530,13 @@
         <v>191562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -5566,13 +5545,13 @@
         <v>166571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>445</v>
@@ -5581,13 +5560,13 @@
         <v>358134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5581,13 @@
         <v>146425</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -5617,13 +5596,13 @@
         <v>126503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>348</v>
@@ -5632,10 +5611,10 @@
         <v>272927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>101</v>
@@ -5706,13 +5685,13 @@
         <v>39120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -5721,13 +5700,13 @@
         <v>43313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -5736,13 +5715,13 @@
         <v>82433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5736,13 @@
         <v>61789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -5772,13 +5751,13 @@
         <v>47915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>151</v>
@@ -5787,13 +5766,13 @@
         <v>109704</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5787,13 @@
         <v>68645</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5823,13 +5802,13 @@
         <v>58904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -5838,13 +5817,13 @@
         <v>127549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5891,13 @@
         <v>218446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>345</v>
@@ -5927,13 +5906,13 @@
         <v>212264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>702</v>
@@ -5942,13 +5921,13 @@
         <v>430710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5942,13 @@
         <v>274367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>315</v>
@@ -5978,13 +5957,13 @@
         <v>238745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>648</v>
@@ -5993,13 +5972,13 @@
         <v>513112</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +5993,13 @@
         <v>221663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -6029,13 +6008,13 @@
         <v>191612</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>541</v>
@@ -6044,13 +6023,13 @@
         <v>413275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42B9392-129C-428B-BC01-A7044C2B3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC16023-68BA-4E1D-814A-428F9C3E399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2BC726D-98B5-4FFB-8993-F88C7A35F6B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{94DB24BF-1C37-4762-8E5B-D664662A5F79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="355">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>No, nunca ha ido al/la dentista</t>
@@ -80,1036 +80,1030 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1515,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728A9B26-DC89-4F82-9815-43EC60E1A087}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02189F2C-0226-43AA-8C83-801C0284731C}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1656,12 +1650,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1679,105 +1675,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>61460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66139</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>127599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>29407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20706</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>50113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,52 +1786,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1849,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1864,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1879,109 +1881,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="D9" s="7">
-        <v>66138</v>
+        <v>273515</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>91</v>
+        <v>496</v>
       </c>
       <c r="I9" s="7">
-        <v>61460</v>
+        <v>328914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>190</v>
+        <v>914</v>
       </c>
       <c r="N9" s="7">
-        <v>127599</v>
+        <v>602429</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="D10" s="7">
-        <v>20706</v>
+        <v>141882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="I10" s="7">
-        <v>29407</v>
+        <v>148077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="N10" s="7">
-        <v>50113</v>
+        <v>289959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,54 +1992,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D11" s="7">
-        <v>86844</v>
+        <v>415397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I11" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>266</v>
+        <v>1346</v>
       </c>
       <c r="N11" s="7">
-        <v>177712</v>
+        <v>892388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2055,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2070,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2085,109 +2087,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>496</v>
+        <v>183</v>
       </c>
       <c r="D13" s="7">
-        <v>328914</v>
+        <v>124043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="I13" s="7">
-        <v>273515</v>
+        <v>115597</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>914</v>
+        <v>356</v>
       </c>
       <c r="N13" s="7">
-        <v>602429</v>
+        <v>239641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>148077</v>
+        <v>50023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>141882</v>
+        <v>42541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7">
-        <v>289959</v>
+        <v>92564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,54 +2198,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>415397</v>
+        <v>158138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1346</v>
+        <v>490</v>
       </c>
       <c r="N15" s="7">
-        <v>892388</v>
+        <v>332205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2261,7 +2263,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2276,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2291,109 +2293,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>173</v>
+        <v>692</v>
       </c>
       <c r="D17" s="7">
-        <v>115597</v>
+        <v>459019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>183</v>
+        <v>768</v>
       </c>
       <c r="I17" s="7">
-        <v>124043</v>
+        <v>510650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>356</v>
+        <v>1460</v>
       </c>
       <c r="N17" s="7">
-        <v>239641</v>
+        <v>969669</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="D18" s="7">
-        <v>42541</v>
+        <v>221311</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="I18" s="7">
-        <v>50023</v>
+        <v>211324</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>134</v>
+        <v>642</v>
       </c>
       <c r="N18" s="7">
-        <v>92564</v>
+        <v>432635</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,267 +2404,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>236</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="7">
-        <v>158138</v>
+        <v>680330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I19" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>490</v>
+        <v>2102</v>
       </c>
       <c r="N19" s="7">
-        <v>332205</v>
+        <v>1402304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>769</v>
-      </c>
-      <c r="D21" s="7">
-        <v>511376</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="7">
-        <v>692</v>
-      </c>
-      <c r="I21" s="7">
-        <v>459019</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N21" s="7">
-        <v>970395</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>317</v>
-      </c>
-      <c r="D22" s="7">
-        <v>211324</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="7">
-        <v>325</v>
-      </c>
-      <c r="I22" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7">
-        <v>642</v>
-      </c>
-      <c r="N22" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D23" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I23" s="7">
-        <v>680330</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1403030</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2675,8 +2470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A453AF-102C-4BA1-9856-B053560EF0D1}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167FF964-C3E1-4FE3-8EDD-9286A135F45E}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2692,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2805,20 +2600,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2833,105 +2630,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>67407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57030</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>124436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>24962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="7">
+        <v>29162</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>54125</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,52 +2741,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86192</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3003,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3018,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3033,109 +2836,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="D9" s="7">
-        <v>57030</v>
+        <v>315524</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="I9" s="7">
-        <v>67407</v>
+        <v>357182</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>972</v>
       </c>
       <c r="N9" s="7">
-        <v>124436</v>
+        <v>672706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="D10" s="7">
-        <v>29162</v>
+        <v>136686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="I10" s="7">
-        <v>24962</v>
+        <v>134519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="N10" s="7">
-        <v>54125</v>
+        <v>271205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,54 +2947,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="I11" s="7">
-        <v>92369</v>
+        <v>491701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>255</v>
+        <v>1359</v>
       </c>
       <c r="N11" s="7">
-        <v>178561</v>
+        <v>943911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3209,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3224,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3239,109 +3042,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>513</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>357182</v>
+        <v>109414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>315524</v>
+        <v>117143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>972</v>
+        <v>319</v>
       </c>
       <c r="N13" s="7">
-        <v>672706</v>
+        <v>226559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>134519</v>
+        <v>57398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="I14" s="7">
-        <v>136686</v>
+        <v>53722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="N14" s="7">
-        <v>271205</v>
+        <v>111119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,54 +3153,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>704</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>491701</v>
+        <v>166812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>655</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>452210</v>
+        <v>170865</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1359</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>943911</v>
+        <v>337678</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3415,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3430,7 +3233,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3445,109 +3248,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>711</v>
+      </c>
+      <c r="D17" s="7">
+        <v>492345</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>759</v>
+      </c>
+      <c r="I17" s="7">
+        <v>531356</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="7">
-        <v>117143</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="7">
-        <v>154</v>
-      </c>
-      <c r="I17" s="7">
-        <v>109414</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
-        <v>319</v>
+        <v>1470</v>
       </c>
       <c r="N17" s="7">
-        <v>226559</v>
+        <v>1023701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>53722</v>
+        <v>219046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="I18" s="7">
-        <v>57398</v>
+        <v>217403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
-        <v>159</v>
+        <v>622</v>
       </c>
       <c r="N18" s="7">
-        <v>111119</v>
+        <v>436449</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,267 +3359,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>242</v>
+        <v>1025</v>
       </c>
       <c r="D19" s="7">
-        <v>170865</v>
+        <v>711391</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>1067</v>
       </c>
       <c r="I19" s="7">
-        <v>166812</v>
+        <v>748759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>478</v>
+        <v>2092</v>
       </c>
       <c r="N19" s="7">
-        <v>337678</v>
+        <v>1460150</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>760</v>
-      </c>
-      <c r="D21" s="7">
-        <v>531997</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="7">
-        <v>711</v>
-      </c>
-      <c r="I21" s="7">
-        <v>492345</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1471</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1024342</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>308</v>
-      </c>
-      <c r="D22" s="7">
-        <v>217403</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="7">
-        <v>314</v>
-      </c>
-      <c r="I22" s="7">
-        <v>219046</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M22" s="7">
-        <v>622</v>
-      </c>
-      <c r="N22" s="7">
-        <v>436449</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1068</v>
-      </c>
-      <c r="D23" s="7">
-        <v>749400</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I23" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1460791</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3829,8 +3425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29679614-3AE6-468D-9E56-F0B52D00DEF6}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D3463-3600-4BD4-9C3D-2FCB31B54877}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3846,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3949,131 +3545,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48306</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56005</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="N5" s="7">
+        <v>104312</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11072</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12609</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N6" s="7">
+        <v>23681</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,48 +3696,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4141,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4156,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4171,109 +3791,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="D9" s="7">
-        <v>56005</v>
+        <v>325923</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="I9" s="7">
-        <v>48306</v>
+        <v>349859</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
-        <v>153</v>
+        <v>1002</v>
       </c>
       <c r="N9" s="7">
-        <v>104312</v>
+        <v>675782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="D10" s="7">
-        <v>12609</v>
+        <v>146367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="7">
         <v>192</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
       <c r="I10" s="7">
-        <v>11072</v>
+        <v>138876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="N10" s="7">
-        <v>23681</v>
+        <v>285243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,54 +3902,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4347,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4362,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4377,109 +3997,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>503</v>
+        <v>179</v>
       </c>
       <c r="D13" s="7">
-        <v>349859</v>
+        <v>116846</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>499</v>
+        <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>325923</v>
+        <v>128267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
-        <v>1002</v>
+        <v>369</v>
       </c>
       <c r="N13" s="7">
-        <v>675782</v>
+        <v>245113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>138876</v>
+        <v>55857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>146367</v>
+        <v>59228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="N14" s="7">
-        <v>285243</v>
+        <v>115084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,54 +4108,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4553,7 +4173,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4568,7 +4188,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4583,109 +4203,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>190</v>
+        <v>750</v>
       </c>
       <c r="D17" s="7">
-        <v>128267</v>
+        <v>491075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
-        <v>179</v>
+        <v>774</v>
       </c>
       <c r="I17" s="7">
-        <v>116846</v>
+        <v>534131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
-        <v>369</v>
+        <v>1524</v>
       </c>
       <c r="N17" s="7">
-        <v>245113</v>
+        <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="D18" s="7">
-        <v>59228</v>
+        <v>213296</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="I18" s="7">
-        <v>55857</v>
+        <v>210713</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
-        <v>160</v>
+        <v>602</v>
       </c>
       <c r="N18" s="7">
-        <v>115084</v>
+        <v>424008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,267 +4314,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I19" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N19" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>774</v>
-      </c>
-      <c r="D21" s="7">
-        <v>534131</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H21" s="7">
-        <v>750</v>
-      </c>
-      <c r="I21" s="7">
-        <v>491075</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1524</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1025207</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>291</v>
-      </c>
-      <c r="D22" s="7">
-        <v>210713</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="7">
-        <v>311</v>
-      </c>
-      <c r="I22" s="7">
-        <v>213296</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M22" s="7">
-        <v>602</v>
-      </c>
-      <c r="N22" s="7">
-        <v>424008</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D23" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4967,8 +4380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B034A-7A53-4706-8B95-0F61640B766A}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCF4BD0-FE6C-4B04-B3B9-2DCC8331D305}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4984,7 +4397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5085,133 +4498,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>22604</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="I4" s="7">
+        <v>30910</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="N4" s="7">
+        <v>53513</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25172</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22059</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47231</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5939</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6971</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" s="7">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>12910</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,198 +4651,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>53715</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I7" s="7">
+        <v>59940</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="N7" s="7">
+        <v>113654</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="D8" s="7">
-        <v>29224</v>
+        <v>149257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="I8" s="7">
-        <v>19686</v>
+        <v>159640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="N8" s="7">
-        <v>48909</v>
+        <v>308897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="D9" s="7">
-        <v>21016</v>
+        <v>178504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="I9" s="7">
-        <v>24259</v>
+        <v>195555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M9" s="7">
-        <v>52</v>
+        <v>445</v>
       </c>
       <c r="N9" s="7">
-        <v>45275</v>
+        <v>374059</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>6593</v>
+        <v>125373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="I10" s="7">
-        <v>6205</v>
+        <v>156972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="N10" s="7">
-        <v>12799</v>
+        <v>282345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,204 +4857,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>56833</v>
+        <v>453135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>650</v>
       </c>
       <c r="I11" s="7">
-        <v>50150</v>
+        <v>512167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>148</v>
+        <v>1283</v>
       </c>
       <c r="N11" s="7">
-        <v>106983</v>
+        <v>965302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>150103</v>
+        <v>43940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>149265</v>
+        <v>41548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="N12" s="7">
-        <v>299368</v>
+        <v>85488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>191562</v>
+        <v>46485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>166571</v>
+        <v>65215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>358134</v>
+        <v>111700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>146425</v>
+        <v>57901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>126503</v>
+        <v>71501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="N14" s="7">
-        <v>272927</v>
+        <v>129402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,204 +5063,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>650</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>488090</v>
+        <v>148326</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>633</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>442339</v>
+        <v>178264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1283</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>930429</v>
+        <v>326590</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D16" s="7">
-        <v>39120</v>
+        <v>215801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="I16" s="7">
-        <v>43313</v>
+        <v>232097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
-        <v>135</v>
+        <v>702</v>
       </c>
       <c r="N16" s="7">
-        <v>82433</v>
+        <v>447898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="D17" s="7">
-        <v>61789</v>
+        <v>250161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="I17" s="7">
-        <v>47915</v>
+        <v>282829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
-        <v>151</v>
+        <v>648</v>
       </c>
       <c r="N17" s="7">
-        <v>109704</v>
+        <v>532991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>68645</v>
+        <v>189213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="I18" s="7">
-        <v>58904</v>
+        <v>235444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="M18" s="7">
-        <v>174</v>
+        <v>541</v>
       </c>
       <c r="N18" s="7">
-        <v>127549</v>
+        <v>424657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,267 +5269,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>928</v>
       </c>
       <c r="D19" s="7">
-        <v>169554</v>
+        <v>655175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>228</v>
+        <v>963</v>
       </c>
       <c r="I19" s="7">
-        <v>150132</v>
+        <v>750371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>460</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>319686</v>
+        <v>1405546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>357</v>
-      </c>
-      <c r="D20" s="7">
-        <v>218446</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>345</v>
-      </c>
-      <c r="I20" s="7">
-        <v>212264</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>702</v>
-      </c>
-      <c r="N20" s="7">
-        <v>430710</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>333</v>
-      </c>
-      <c r="D21" s="7">
-        <v>274367</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="7">
-        <v>315</v>
-      </c>
-      <c r="I21" s="7">
-        <v>238745</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M21" s="7">
-        <v>648</v>
-      </c>
-      <c r="N21" s="7">
-        <v>513112</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>273</v>
-      </c>
-      <c r="D22" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H22" s="7">
-        <v>268</v>
-      </c>
-      <c r="I22" s="7">
-        <v>191612</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M22" s="7">
-        <v>541</v>
-      </c>
-      <c r="N22" s="7">
-        <v>413275</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>963</v>
-      </c>
-      <c r="D23" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>928</v>
-      </c>
-      <c r="I23" s="7">
-        <v>642621</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1357098</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
